--- a/doc/API list.xlsx
+++ b/doc/API list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE216808-E8DF-4C66-853A-C29AF3FC01E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B6FE9-2A4E-4A7C-B0E7-62065FEEA8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,19 +165,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://innovaapi.aminer.cn/test/v1/predict/experts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommend some experts in the given field.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The number of experts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Field</t>
+    <t>https://innovaapi.aminer.cn/tools/v1/predict/experts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some text in the paper.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend some experts in the given text's field.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,14 +267,8 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -285,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -571,202 +571,202 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="67.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="47.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/API list.xlsx
+++ b/doc/API list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B6FE9-2A4E-4A7C-B0E7-62065FEEA8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE216808-E8DF-4C66-853A-C29AF3FC01E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,19 +165,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://innovaapi.aminer.cn/test/v1/predict/experts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommend some experts in the given field.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>The number of experts</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://innovaapi.aminer.cn/tools/v1/predict/experts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Some text in the paper.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recommend some experts in the given text's field.</t>
+    <t>Field</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,8 +267,14 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -279,12 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -571,202 +571,202 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="47.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/API list.xlsx
+++ b/doc/API list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B6FE9-2A4E-4A7C-B0E7-62065FEEA8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945462DA-AC1D-4123-B499-B74756D24874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,185 +20,232 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NSFC Subject Classifier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Classify which subjects the publications belong to.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/predict/nsfc</t>
   </si>
   <si>
     <t>parameters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> The titles of publications.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>titles</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/predict/nsfc/person</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The professor's id in AMiner.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NSFC AI Subject Classifier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Get the classification of the keywords and a subject tree.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/predict/nsfc/ai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Keywords.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>words</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Get a professor's research interests.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gender Prediction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JobHopping Prediction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Predict where a professor will job-hop.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Predict a person's gender.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/predict/career</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>org</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The professor's organization.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/gender</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The person's organization.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The person's name.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Expert Recommendation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Identity Prediction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unfinished</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The number of experts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://innovaapi.aminer.cn/tools/v1/predict/experts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Some text in the paper.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Recommend some experts in the given text's field.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predict a scholar's identity and his or her degree.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://innovaapi.aminer.cn/tools/v1/predict/identity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Citation number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G-index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time range of papers.</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The photo's online url.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,22 +278,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF24292E"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -258,39 +300,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,16 +612,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="65.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
@@ -715,7 +759,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
@@ -725,77 +769,153 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="F9:F10"/>
+  <mergeCells count="18">
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A12:A16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6269ECBB-7F77-4FAF-AFAE-762E06E3E0E4}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{850460B5-C355-466B-A06D-39843A139C19}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{12CF2A17-D90D-4BA8-9754-5471E85626A7}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{667A09FA-8174-4AD7-84A0-603CDD0A4D26}"/>
     <hyperlink ref="C7" r:id="rId5" xr:uid="{711507D1-652D-4A23-9322-47156E828D68}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{09E9C03A-5EA2-4925-A865-3FFCCB37FA0D}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{09E9C03A-5EA2-4925-A865-3FFCCB37FA0D}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{F250A9B1-7B07-4BCD-B701-0BB7451A1249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
 </worksheet>
 </file>